--- a/biology/Zoologie/Plecia_pinguis/Plecia_pinguis.xlsx
+++ b/biology/Zoologie/Plecia_pinguis/Plecia_pinguis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Protomyia pinguis, Bibio brachypteroides, Penthetria lapidaria, Plecia lapidaria, Plecia vulpina, Protomyia lapidaria
 Plecia inflata est une espèce fossile de mouches (diptères) de la famille des Bibionidae.
@@ -514,25 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Descriptions initiales
-En 1865 l'espèce Protomyia pinguis est décrite par les entomologistes allemands Carl von Heyden (1793-1866) et Lucas Friedrich Julius Dominikus von Heyden (1838-1915) (père et fils)[1],[2]. Parallèlement, ils décrivent la même année, l'espèce Protomyia lapidaria[3].
-En 1915 l'espèce Bibio brachypteroies est décrite par l'entomologiste et paléontologue belge Fernand Meunier (1868-1926)[4].
-En 1943 l'espèce Plecia vulpina est décrite par l'entomologiste allemand Georg Statz (d) (1894-1945)[5],[2].
-Renommage
-En 1943, l'entomologiste allemand Georg Statz renomme Protomyia pinguis en Plecia pinguis, ce qui est confirmé en 1994 l'entomologiste américain Neal Luit Evenhuis (1952-)[6] et en 2021 par les entomologistes norvégien John Skartveit (1969-) et allemande Sonja Wedmann (1969-)[7],[2].
-En 1878 Protomyia lapidaria est renommée en Plecia lapidaria par l'entomologiste et paléontologue français Charles Jules Edmée Brongniart (1859-1899)[8], ce qui confirmé en 1891 par l'entomologiste et paléontologue allemand Bruno Förster (1852-1924)[9], en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[10], en 1943 par Georg Statz, en 1994 par Neal Luit Evenhuis et en 2017 par les entomologistes norvégien John Skartveit et français André Nel (1959-)[11],[2].
-En 2021 Bibio brachypteroies et Plecia vulpina sont déclarées synonymes de Plecia pinguis par John Skartveit et Sonja Wedmann[7],[2].
-Fossiles
-Selon Paleobiology Database en 2023, sept collections de fossiles sont référencées, toutes de l'Oligocène, deux de France et cinq d'Allemagne. Ces collections viennent de :
-Brunstatt, Bas-Rhin en Alsace, décrite en 1891 par Bruno Förster sous le nom de Plecia lapidaria[12] ;
-Aix-en-Provence, département des Bouches-du-Rhône en Provence-Alpes-Côte d'Azur, collection Coquand de l'École des Mines de Paris et l'université Claude Bernard à Lyon, décrite en 1915 par Fernand Meunier[13] ;
-Kleinkembs en Bade-Wurtemberg (Allemagne), venant du Muséum de Bâle, décrite en 1937 par Nicolas Théobald sous le nom de Plecia lapidaria[14],[2] ;
-Rott en Rhénanie-Palatinat (Allemagne), venant de :
-la collection Heymann, déposée à Bonn, et décrite en 1870 par Lucas Friedrich Julius Dominikus von Heyden[15] ;
-la collection Kranz de Bonn, et décrite en 1859 par Carl von Heyden[16] ;
-la collection Bauckhorn, Heimatmuseum, Siegburg an der Lahn, décrite en 1914 par Fernand Meunier[17].
-Étymologie
-L'épithète spécifique pinguis signifie en latin « graisse ». Les épithètes spécifiques lapidaria, brachypteroides et vulpina signifie en latin respectivement « maçonnerie, brachyptéroïdes, renard »
+          <t>Descriptions initiales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1865 l'espèce Protomyia pinguis est décrite par les entomologistes allemands Carl von Heyden (1793-1866) et Lucas Friedrich Julius Dominikus von Heyden (1838-1915) (père et fils),. Parallèlement, ils décrivent la même année, l'espèce Protomyia lapidaria.
+En 1915 l'espèce Bibio brachypteroies est décrite par l'entomologiste et paléontologue belge Fernand Meunier (1868-1926).
+En 1943 l'espèce Plecia vulpina est décrite par l'entomologiste allemand Georg Statz (d) (1894-1945),.
 </t>
         </is>
       </c>
@@ -558,14 +560,138 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1943, l'entomologiste allemand Georg Statz renomme Protomyia pinguis en Plecia pinguis, ce qui est confirmé en 1994 l'entomologiste américain Neal Luit Evenhuis (1952-) et en 2021 par les entomologistes norvégien John Skartveit (1969-) et allemande Sonja Wedmann (1969-),.
+En 1878 Protomyia lapidaria est renommée en Plecia lapidaria par l'entomologiste et paléontologue français Charles Jules Edmée Brongniart (1859-1899), ce qui confirmé en 1891 par l'entomologiste et paléontologue allemand Bruno Förster (1852-1924), en 1937 par le paléontologue français Nicolas Théobald (1903-1981), en 1943 par Georg Statz, en 1994 par Neal Luit Evenhuis et en 2017 par les entomologistes norvégien John Skartveit et français André Nel (1959-),.
+En 2021 Bibio brachypteroies et Plecia vulpina sont déclarées synonymes de Plecia pinguis par John Skartveit et Sonja Wedmann,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_pinguis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_pinguis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, sept collections de fossiles sont référencées, toutes de l'Oligocène, deux de France et cinq d'Allemagne. Ces collections viennent de :
+Brunstatt, Bas-Rhin en Alsace, décrite en 1891 par Bruno Förster sous le nom de Plecia lapidaria ;
+Aix-en-Provence, département des Bouches-du-Rhône en Provence-Alpes-Côte d'Azur, collection Coquand de l'École des Mines de Paris et l'université Claude Bernard à Lyon, décrite en 1915 par Fernand Meunier ;
+Kleinkembs en Bade-Wurtemberg (Allemagne), venant du Muséum de Bâle, décrite en 1937 par Nicolas Théobald sous le nom de Plecia lapidaria, ;
+Rott en Rhénanie-Palatinat (Allemagne), venant de :
+la collection Heymann, déposée à Bonn, et décrite en 1870 par Lucas Friedrich Julius Dominikus von Heyden ;
+la collection Kranz de Bonn, et décrite en 1859 par Carl von Heyden ;
+la collection Bauckhorn, Heimatmuseum, Siegburg an der Lahn, décrite en 1914 par Fernand Meunier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_pinguis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_pinguis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique pinguis signifie en latin « graisse ». Les épithètes spécifiques lapidaria, brachypteroides et vulpina signifie en latin respectivement « maçonnerie, brachyptéroïdes, renard »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_pinguis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_pinguis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[18],[note 1] : 
-« Cette espèce a des ailes très courtes atteignant à peine l'extrémité de l'abdomen. Elle est représentée à Brunstatt par trois exemplaires, à Kleinkembs par seize exemplaires : R993, 190, 767, 23, 81, 249, 448, 957, 130, 151, 347, 423, 372, 373, 537, 661. »[18].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Cette espèce a des ailes très courtes atteignant à peine l'extrémité de l'abdomen. Elle est représentée à Brunstatt par trois exemplaires, à Kleinkembs par seize exemplaires : R993, 190, 767, 23, 81, 249, 448, 957, 130, 151, 347, 423, 372, 373, 537, 661. ».
 </t>
         </is>
       </c>
